--- a/Make csv/계정 설명.xlsx
+++ b/Make csv/계정 설명.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\KSIF\GIT\Make csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\Make csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>자본총계</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>당기순이익(Fwd.12M, 지배)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1005,17 +1009,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="N34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1023,12 +1030,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1036,13 +1043,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D48" s="4" t="s">
         <v>62</v>
       </c>

--- a/Make csv/계정 설명.xlsx
+++ b/Make csv/계정 설명.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>자본총계</t>
   </si>
@@ -323,6 +323,20 @@
   </si>
   <si>
     <t>wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17. 2002년 이전에는 kosdaq 대,중,소 index가 없었기 때문에 시가총액 기준으로 4,5,6이 없다. 따라서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R104000</t>
+  </si>
+  <si>
+    <t>상장된 시장</t>
+  </si>
+  <si>
+    <t>필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1135,6 +1149,22 @@
         <v>74</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Make csv/계정 설명.xlsx
+++ b/Make csv/계정 설명.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>자본총계</t>
   </si>
@@ -337,6 +337,34 @@
   </si>
   <si>
     <t>필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액,매출총이익,영업이익 ttm도 받자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP= gross profit/asset이 높을수록 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래대금/시가총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_vol 일간데이터로 1년 낮은거 투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_beta 일간데이터 200일이상 1년 이하 베타 낮은거 투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benish M score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>altman Z Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1165,6 +1193,41 @@
         <v>79</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Make csv/계정 설명.xlsx
+++ b/Make csv/계정 설명.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>자본총계</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>altman Z Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출총이익은 ttm이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 섹터마다 따로받아야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1117,6 +1129,9 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
@@ -1140,17 +1155,17 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>68</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>70</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>73</v>
       </c>
@@ -1177,12 +1192,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
@@ -1192,33 +1207,39 @@
       <c r="D57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>85</v>
       </c>

--- a/Make csv/계정 설명.xlsx
+++ b/Make csv/계정 설명.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>자본총계</t>
   </si>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>altman Z Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +373,104 @@
   </si>
   <si>
     <t>이건 섹터마다 따로받아야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>altman-z-score = 1.2a+1.4b+3.3c+0.6d+1.0e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=working capital / total asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>altman Z Score = 비 금융회사에만 적용….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-manufacturing businesses:</t>
+  </si>
+  <si>
+    <t>Z2 = 6.56*T1 + 3.26*T2 + 6.72*T3 + 1.05*T4A</t>
+  </si>
+  <si>
+    <t>quantiwise에서 운전자본을 받으면 유동자산 - 유동부채가 아닌 다른 값이 나온다. 방법론의 차이. 무엇이 맞는건지는 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b = retained earnings / total asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">retained earnings = 이익잉여금 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M115600.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c = ebit / total assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M123100.M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d = market value of equity / book value of total liabilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시총 / 총부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e = sales / total asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 sales 는 ttm 인가 아니면 걍 직전분기인ㄱ ㅏ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> benish M score 제조업기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Receivable = Receivable - Allowance for doubtful accounts ( A113360 , A113370)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSRI = Days Sales In Receivables Index = (Net Receivables_t / Sales_t) / (Net Receivables_(t-1) / Sales_(t-1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMI = Gross Margin Index = [(Sales_(t-1) - COGS_(t-1)) / Sales_(t-1)] / [(Sales_t - COGSt_) / Sales_t] = Gross Margin_(t-1) / Gross Margin_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출총이익 = A200810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI = Asset Quality Index = [1 - ( PPE_t+Current Asset_t)/Total Assets_t] / [1 - (PPE_(t-1) + Current Asset_(t-1))/Total Asset_(t-1)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppe = 유형자산 = A110020  ,  Current Asset = 유동자산 = A112830 ,   Total Asset = 자산총계  = A110000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGI = Sales Growth Index = Sales_(t-1) / Sales_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액 = A2000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPI = Depreciation Index = (Depreciation_(t-1) / (PP&amp;E_(t-1) + Depreciation_(t-1))) / (Depreciation_t / (PP&amp;E_t + Depreciation_t))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +518,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -478,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +617,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,16 +932,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
@@ -1130,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
@@ -1208,7 +1315,7 @@
         <v>79</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -1216,7 +1323,7 @@
         <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -1244,9 +1351,113 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" ht="27.6" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
